--- a/data/genius_Bushido_Bushido.xlsx
+++ b/data/genius_Bushido_Bushido.xlsx
@@ -407,7 +407,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Desde Marte hasta Venus solo existe un simple pasoQue depende del hechizo que me hiciste tu a miMe comporto como un loco desquiciado y peligrosoSolo porque estoy infectado de tu amorDefinirte por el rasgo de tus ojos es un mal tragoDe amargo desengaño que se vuelve contra tiMe comporto como un niño caprichoso y desvalidoSolo porque estoy infectado de tu amorEn el fondo del vaso me espera tu abrazoEs un espejo opaco donde no me podrás verAvanzar por si acaso sin temor a contagiosEn un lienzo sin trazo donde te podrás perderPrometiste darme fuego que se oculta entre tus labiosEl veneno que me has dado por el que ahora estoy asíMe confunde este estado sin reposoSolo porque estoy trastornado por tu amorMe comporto como un loco adiestrado a tus antojosSolo porque estoy infectado de tu amorEn el fondo del vaso me espera tu abrazoEs un espejo opaco donde no me podrás verAvanzar por si acaso sin temor a contagiosEn un lienzo sin trazo donde te podrás perder</t>
+          <t>Desde Marte hasta Venus solo existe un simple paso
+Que depende del hechizo que me hiciste tu a mi
+Me comporto como un loco desquiciado y peligroso
+Solo porque estoy infectado de tu amor
+Definirte por el rasgo de tus ojos es un mal trago
+De amargo desengaño que se vuelve contra ti
+Me comporto como un niño caprichoso y desvalido
+Solo porque estoy infectado de tu amor
+En el fondo del vaso me espera tu abrazo
+Es un espejo opaco donde no me podrás ver
+Avanzar por si acaso sin temor a contagios
+En un lienzo sin trazo donde te podrás perder
+Prometiste darme fuego que se oculta entre tus labios
+El veneno que me has dado por el que ahora estoy así
+Me confunde este estado sin reposo
+Solo porque estoy trastornado por tu amor
+Me comporto como un loco adiestrado a tus antojos
+Solo porque estoy infectado de tu amor
+En el fondo del vaso me espera tu abrazo
+Es un espejo opaco donde no me podrás ver
+Avanzar por si acaso sin temor a contagios
+En un lienzo sin trazo donde te podrás perder</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
